--- a/FakeProject/code/laya/p_yinyou/others/publish/templates/_project/excel/roll_config.xlsx
+++ b/FakeProject/code/laya/p_yinyou/others/publish/templates/_project/excel/roll_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>转盘id</t>
   </si>
@@ -137,46 +137,34 @@
     <t>roll_weight</t>
   </si>
   <si>
-    <t>超级钞票箱</t>
+    <t>金币*50</t>
   </si>
   <si>
     <t>#3075e3</t>
   </si>
   <si>
-    <t>ui://c6t3i6k8ttx33z</t>
-  </si>
-  <si>
-    <t>一叠钞票</t>
+    <t>ui://cinkzgsmm9zn3</t>
+  </si>
+  <si>
+    <t>金币*100</t>
   </si>
   <si>
     <t>#ed1c24</t>
   </si>
   <si>
-    <t>ui://c6t3i6k8ttx316</t>
-  </si>
-  <si>
-    <t>超酷黑衣人</t>
-  </si>
-  <si>
-    <t>ui://9pt95ndutd358</t>
-  </si>
-  <si>
-    <t>豪华钞票箱</t>
-  </si>
-  <si>
-    <t>一堆钞票</t>
-  </si>
-  <si>
-    <t>ui://c6t3i6k8ttx33k</t>
-  </si>
-  <si>
-    <t>复合弩枪</t>
-  </si>
-  <si>
-    <t>ui://9pt95ndub7iln</t>
-  </si>
-  <si>
-    <t>超级钞票</t>
+    <t>金币*150</t>
+  </si>
+  <si>
+    <t>金币*200</t>
+  </si>
+  <si>
+    <t>金币*250</t>
+  </si>
+  <si>
+    <t>金币*300</t>
+  </si>
+  <si>
+    <t>金币*350</t>
   </si>
 </sst>
 </file>
@@ -184,9 +172,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -199,6 +187,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,7 +201,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,22 +245,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,91 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -353,7 +341,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,7 +350,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,31 +428,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,145 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,39 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,11 +570,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,21 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,141 +661,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,7 +1146,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1283,16 +1262,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1306,19 +1285,19 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1329,28 +1308,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1358,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -1370,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1387,28 +1366,28 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1416,36 +1395,36 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+      <c r="B10" t="s">
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1457,16 +1436,16 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/FakeProject/code/laya/p_yinyou/others/publish/templates/_project/excel/roll_config.xlsx
+++ b/FakeProject/code/laya/p_yinyou/others/publish/templates/_project/excel/roll_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>转盘id</t>
   </si>
@@ -137,34 +137,46 @@
     <t>roll_weight</t>
   </si>
   <si>
-    <t>金币*50</t>
+    <t>超级钞票箱</t>
   </si>
   <si>
     <t>#3075e3</t>
   </si>
   <si>
-    <t>ui://cinkzgsmm9zn3</t>
-  </si>
-  <si>
-    <t>金币*100</t>
+    <t>ui://c6t3i6k8ttx33z</t>
+  </si>
+  <si>
+    <t>一叠钞票</t>
   </si>
   <si>
     <t>#ed1c24</t>
   </si>
   <si>
-    <t>金币*150</t>
-  </si>
-  <si>
-    <t>金币*200</t>
-  </si>
-  <si>
-    <t>金币*250</t>
-  </si>
-  <si>
-    <t>金币*300</t>
-  </si>
-  <si>
-    <t>金币*350</t>
+    <t>ui://c6t3i6k8ttx316</t>
+  </si>
+  <si>
+    <t>超酷黑衣人</t>
+  </si>
+  <si>
+    <t>ui://9pt95ndutd358</t>
+  </si>
+  <si>
+    <t>豪华钞票箱</t>
+  </si>
+  <si>
+    <t>一堆钞票</t>
+  </si>
+  <si>
+    <t>ui://c6t3i6k8ttx33k</t>
+  </si>
+  <si>
+    <t>复合弩枪</t>
+  </si>
+  <si>
+    <t>ui://9pt95ndub7iln</t>
+  </si>
+  <si>
+    <t>超级钞票</t>
   </si>
 </sst>
 </file>
@@ -172,9 +184,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -187,43 +199,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,15 +228,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -261,15 +272,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,24 +302,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,22 +339,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,7 +353,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,187 +362,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +559,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,44 +621,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,21 +659,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,150 +667,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,7 +1167,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1262,16 +1283,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1285,19 +1306,19 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1308,28 +1329,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1337,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -1349,16 +1370,16 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1366,28 +1387,28 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="I8">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1395,36 +1416,36 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="I9">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1436,16 +1457,16 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>350</v>
+        <v>5000</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/FakeProject/code/laya/p_yinyou/others/publish/templates/_project/excel/roll_config.xlsx
+++ b/FakeProject/code/laya/p_yinyou/others/publish/templates/_project/excel/roll_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,36 +18,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>admin</author>
     <author>Jason</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1金币
-2皮肤
-3武器
-4宠物</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="1">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +63,10 @@
     <t>转盘图标</t>
   </si>
   <si>
-    <t>奖励类型</t>
+    <t xml:space="preserve">奖励类型
+0金币
+1皮肤
+</t>
   </si>
   <si>
     <t>奖励内容</t>
@@ -172,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -187,21 +164,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +215,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -221,19 +246,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,31 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,12 +278,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,41 +299,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -340,6 +312,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -350,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,15 +518,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,7 +540,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,26 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,6 +589,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,124 +638,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,13 +767,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1146,7 +1126,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1158,7 +1138,7 @@
     <col min="7" max="8" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="54" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1151,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1259,13 +1239,13 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -1288,13 +1268,13 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -1317,13 +1297,13 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>150</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -1346,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>200</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -1375,13 +1355,13 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>250</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>250</v>
@@ -1404,13 +1384,13 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>300</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>300</v>
@@ -1433,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>350</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>350</v>

--- a/FakeProject/code/laya/p_yinyou/others/publish/templates/_project/excel/roll_config.xlsx
+++ b/FakeProject/code/laya/p_yinyou/others/publish/templates/_project/excel/roll_config.xlsx
@@ -51,7 +51,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
-    <t>转盘id</t>
+    <t>转盘id
+第一次必然转到1</t>
   </si>
   <si>
     <t>转盘内容</t>
@@ -149,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -164,19 +165,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -185,9 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,74 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -277,6 +262,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -284,27 +293,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -312,11 +318,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -327,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,30 +519,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,17 +537,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,8 +564,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,6 +589,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,139 +639,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1126,11 +1130,12 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="39.125" customWidth="1"/>
@@ -1139,7 +1144,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="54" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1151,7 +1156,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
